--- a/squire_results.xlsx
+++ b/squire_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,31 @@
           <t>food_fat_produced</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>electricity_balance</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>digestate_produced</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>biomethane_produced</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>phosphorus_balance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>nitrogen_balance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -482,6 +507,31 @@
           <t>gr/Kg</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Kg</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>g_CH4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>g_P</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>g_N</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -501,6 +551,21 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H3" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -520,6 +585,21 @@
       <c r="E4" t="n">
         <v>167840.5566896784</v>
       </c>
+      <c r="F4" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H4" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -539,6 +619,21 @@
       <c r="E5" t="n">
         <v>168241.3499185234</v>
       </c>
+      <c r="F5" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H5" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -558,6 +653,21 @@
       <c r="E6" t="n">
         <v>129456.6036027339</v>
       </c>
+      <c r="F6" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H6" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -577,6 +687,21 @@
       <c r="E7" t="n">
         <v>200736.4629990784</v>
       </c>
+      <c r="F7" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H7" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -596,6 +721,21 @@
       <c r="E8" t="n">
         <v>291408.3202860228</v>
       </c>
+      <c r="F8" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H8" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -615,6 +755,21 @@
       <c r="E9" t="n">
         <v>283094.4628148678</v>
       </c>
+      <c r="F9" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H9" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -634,6 +789,21 @@
       <c r="E10" t="n">
         <v>416076.4167045463</v>
       </c>
+      <c r="F10" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H10" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -653,6 +823,21 @@
       <c r="E11" t="n">
         <v>527642.1484677042</v>
       </c>
+      <c r="F11" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H11" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -672,6 +857,21 @@
       <c r="E12" t="n">
         <v>750134.8496114174</v>
       </c>
+      <c r="F12" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H12" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -691,6 +891,21 @@
       <c r="E13" t="n">
         <v>712511.2133285378</v>
       </c>
+      <c r="F13" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H13" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -710,6 +925,21 @@
       <c r="E14" t="n">
         <v>999471.0424484645</v>
       </c>
+      <c r="F14" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H14" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -729,6 +959,21 @@
       <c r="E15" t="n">
         <v>1764264.526627579</v>
       </c>
+      <c r="F15" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H15" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -748,6 +993,21 @@
       <c r="E16" t="n">
         <v>1818090.331893151</v>
       </c>
+      <c r="F16" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H16" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -767,6 +1027,21 @@
       <c r="E17" t="n">
         <v>1844472.794582755</v>
       </c>
+      <c r="F17" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H17" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -786,6 +1061,21 @@
       <c r="E18" t="n">
         <v>1798583.831855406</v>
       </c>
+      <c r="F18" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H18" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -805,6 +1095,21 @@
       <c r="E19" t="n">
         <v>1678870.836999838</v>
       </c>
+      <c r="F19" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H19" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -824,6 +1129,21 @@
       <c r="E20" t="n">
         <v>1740710.151063839</v>
       </c>
+      <c r="F20" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H20" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -843,6 +1163,21 @@
       <c r="E21" t="n">
         <v>1695884.335640284</v>
       </c>
+      <c r="F21" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H21" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-255991952.6850761</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -861,6 +1196,21 @@
       </c>
       <c r="E22" t="n">
         <v>1710885.801003793</v>
+      </c>
+      <c r="F22" t="n">
+        <v>36997568.89984316</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4981</v>
+      </c>
+      <c r="H22" t="n">
+        <v>108816379.1171858</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-2596623.079088008</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-255991952.6850761</v>
       </c>
     </row>
   </sheetData>

--- a/squire_results.xlsx
+++ b/squire_results.xlsx
@@ -552,19 +552,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G3" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H3" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I3" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J3" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="4">
@@ -586,19 +586,19 @@
         <v>167840.5566896784</v>
       </c>
       <c r="F4" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G4" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H4" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I4" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J4" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="5">
@@ -620,19 +620,19 @@
         <v>168241.3499185234</v>
       </c>
       <c r="F5" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G5" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H5" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I5" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J5" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>129456.6036027339</v>
       </c>
       <c r="F6" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G6" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H6" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I6" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J6" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="7">
@@ -688,19 +688,19 @@
         <v>200736.4629990784</v>
       </c>
       <c r="F7" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G7" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H7" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I7" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J7" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="8">
@@ -722,19 +722,19 @@
         <v>291408.3202860228</v>
       </c>
       <c r="F8" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G8" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H8" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I8" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J8" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="9">
@@ -756,19 +756,19 @@
         <v>283094.4628148678</v>
       </c>
       <c r="F9" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G9" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H9" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I9" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J9" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="10">
@@ -790,19 +790,19 @@
         <v>416076.4167045463</v>
       </c>
       <c r="F10" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G10" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H10" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I10" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J10" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="11">
@@ -824,19 +824,19 @@
         <v>527642.1484677042</v>
       </c>
       <c r="F11" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G11" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H11" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I11" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J11" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="12">
@@ -858,19 +858,19 @@
         <v>750134.8496114174</v>
       </c>
       <c r="F12" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G12" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H12" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I12" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J12" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="13">
@@ -892,19 +892,19 @@
         <v>712511.2133285378</v>
       </c>
       <c r="F13" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G13" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H13" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I13" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J13" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>999471.0424484645</v>
       </c>
       <c r="F14" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G14" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H14" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I14" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J14" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="15">
@@ -960,19 +960,19 @@
         <v>1764264.526627579</v>
       </c>
       <c r="F15" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G15" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H15" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I15" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J15" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="16">
@@ -994,19 +994,19 @@
         <v>1818090.331893151</v>
       </c>
       <c r="F16" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G16" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H16" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I16" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J16" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="17">
@@ -1028,19 +1028,19 @@
         <v>1844472.794582755</v>
       </c>
       <c r="F17" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G17" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H17" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I17" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J17" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="18">
@@ -1062,19 +1062,19 @@
         <v>1798583.831855406</v>
       </c>
       <c r="F18" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G18" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H18" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I18" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J18" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="19">
@@ -1096,19 +1096,19 @@
         <v>1678870.836999838</v>
       </c>
       <c r="F19" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G19" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H19" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I19" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J19" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="20">
@@ -1130,19 +1130,19 @@
         <v>1740710.151063839</v>
       </c>
       <c r="F20" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G20" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H20" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I20" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J20" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="21">
@@ -1164,19 +1164,19 @@
         <v>1695884.335640284</v>
       </c>
       <c r="F21" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G21" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H21" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I21" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J21" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
     <row r="22">
@@ -1198,19 +1198,19 @@
         <v>1710885.801003793</v>
       </c>
       <c r="F22" t="n">
-        <v>36997568.89984316</v>
+        <v>4946314792.410331</v>
       </c>
       <c r="G22" t="n">
-        <v>4981</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="H22" t="n">
-        <v>108816379.1171858</v>
+        <v>14547984683.5598</v>
       </c>
       <c r="I22" t="n">
-        <v>-2596623.079088008</v>
+        <v>1462472.173039635</v>
       </c>
       <c r="J22" t="n">
-        <v>-255991952.6850761</v>
+        <v>-248613684.1368121</v>
       </c>
     </row>
   </sheetData>

--- a/squire_results.xlsx
+++ b/squire_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75FE0EF-5EAA-4378-BAB7-2873788A610C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B08113-96D2-4383-B5C6-99788880D86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,20 +16,7 @@
     <sheet name="statistics" sheetId="1" r:id="rId1"/>
     <sheet name="herd" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -166,10 +153,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,14 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,12 +512,12 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="23.7109375" customWidth="1"/>
+    <col min="2" max="11" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -611,34 +591,34 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>63670.170821997999</v>
       </c>
       <c r="D3">
         <v>33448015.364974301</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>1362496.60946088</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>366140.01292221999</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>6599752147.8787451</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>798813.04833841091</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>19411035729.05513</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <v>214722.6573964846</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>-123300986.3145458</v>
       </c>
     </row>
@@ -646,34 +626,34 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>7025.2444138230521</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>63670.170821997999</v>
       </c>
       <c r="D4">
         <v>36340586.661115572</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>1738352.324175532</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>533980.56961189827</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>6580490545.559989</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>801240.26596231095</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>19354383957.529381</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>217856.94159384261</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>-123348726.5101811</v>
       </c>
     </row>
@@ -681,34 +661,34 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>7080.5976821746845</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>63670.170821997999</v>
       </c>
       <c r="D5">
         <v>36347493.948676519</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>1739249.8451826801</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>534381.36284074339</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>6533488119.9409227</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>811020.02239246096</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>19216141529.23801</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>233947.7100352589</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>-123461673.0157012</v>
       </c>
     </row>
@@ -716,34 +696,34 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>5493.6826523325781</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>63670.170821997999</v>
       </c>
       <c r="D6">
         <v>35679075.98025547</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>1652396.7696563641</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>495596.61652495398</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>6458367224.9432278</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>830784.94004956097</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>18995197720.421261</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>268596.78565223521</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>-123628298.0199963</v>
       </c>
     </row>

--- a/squire_results.xlsx
+++ b/squire_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B08113-96D2-4383-B5C6-99788880D86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852C0125-59CF-4EB7-84C3-116359DDD38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,6 +153,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,11 +205,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,12 +516,12 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="22.42578125" customWidth="1"/>
+    <col min="2" max="11" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -594,8 +598,8 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>63670.170821997999</v>
+      <c r="C3" s="2">
+        <v>150699.56580056931</v>
       </c>
       <c r="D3">
         <v>33448015.364974301</v>
@@ -629,8 +633,8 @@
       <c r="B4">
         <v>7025.2444138230521</v>
       </c>
-      <c r="C4">
-        <v>63670.170821997999</v>
+      <c r="C4" s="2">
+        <v>150699.56580056931</v>
       </c>
       <c r="D4">
         <v>36340586.661115572</v>
@@ -664,8 +668,8 @@
       <c r="B5">
         <v>7080.5976821746845</v>
       </c>
-      <c r="C5">
-        <v>63670.170821997999</v>
+      <c r="C5" s="2">
+        <v>150699.56580056931</v>
       </c>
       <c r="D5">
         <v>36347493.948676519</v>
@@ -699,8 +703,8 @@
       <c r="B6">
         <v>5493.6826523325781</v>
       </c>
-      <c r="C6">
-        <v>63670.170821997999</v>
+      <c r="C6" s="2">
+        <v>150699.56580056931</v>
       </c>
       <c r="D6">
         <v>35679075.98025547</v>

--- a/squire_results.xlsx
+++ b/squire_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852C0125-59CF-4EB7-84C3-116359DDD38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F9057-95ED-421F-A8FD-A557855E476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>revenue_balance_animal</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>nitrogen_balance</t>
+  </si>
+  <si>
+    <t>digestion_methane_emissions</t>
+  </si>
+  <si>
+    <t>manure_methane_emissions</t>
   </si>
   <si>
     <t>unit</t>
@@ -153,10 +159,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +175,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,17 +216,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,18 +529,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="24.140625" customWidth="1"/>
+    <col min="1" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,180 +571,216 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
       </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>150699.56580056931</v>
+      <c r="C3">
+        <v>338792.4034786069</v>
       </c>
       <c r="D3">
-        <v>33448015.364974301</v>
+        <v>112103748.40921509</v>
       </c>
       <c r="E3">
-        <v>1362496.60946088</v>
+        <v>4199369.1334051937</v>
       </c>
       <c r="F3">
-        <v>366140.01292221999</v>
+        <v>1158500.010259711</v>
       </c>
       <c r="G3">
-        <v>6599752147.8787451</v>
+        <v>8659549636.1001015</v>
       </c>
       <c r="H3">
-        <v>798813.04833841091</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="I3">
-        <v>19411035729.05513</v>
-      </c>
-      <c r="J3">
-        <v>214722.6573964846</v>
-      </c>
-      <c r="K3">
-        <v>-123300986.3145458</v>
+        <v>25469263635.588531</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-83843062.943861365</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-1908923741.402257</v>
+      </c>
+      <c r="L3">
+        <v>897836.07785</v>
+      </c>
+      <c r="M3">
+        <v>137999.99998537489</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>7025.2444138230521</v>
       </c>
-      <c r="C4" s="2">
-        <v>150699.56580056931</v>
+      <c r="C4">
+        <v>338792.4034786069</v>
       </c>
       <c r="D4">
-        <v>36340586.661115572</v>
+        <v>114996319.7053564</v>
       </c>
       <c r="E4">
-        <v>1738352.324175532</v>
+        <v>4575224.8481198456</v>
       </c>
       <c r="F4">
-        <v>533980.56961189827</v>
+        <v>1326340.5669493889</v>
       </c>
       <c r="G4">
-        <v>6580490545.559989</v>
+        <v>8615634987.4719563</v>
       </c>
       <c r="H4">
-        <v>801240.26596231095</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="I4">
-        <v>19354383957.529381</v>
-      </c>
-      <c r="J4">
-        <v>217856.94159384261</v>
-      </c>
-      <c r="K4">
-        <v>-123348726.5101811</v>
+        <v>25340102904.329281</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-83837201.575652853</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-1909079449.244082</v>
+      </c>
+      <c r="L4">
+        <v>1004262.89195</v>
+      </c>
+      <c r="M4">
+        <v>149999.99998536459</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>7080.5976821746845</v>
       </c>
-      <c r="C5" s="2">
-        <v>150699.56580056931</v>
+      <c r="C5">
+        <v>338792.4034786069</v>
       </c>
       <c r="D5">
-        <v>36347493.948676519</v>
+        <v>115003226.9929173</v>
       </c>
       <c r="E5">
-        <v>1739249.8451826801</v>
+        <v>4576122.3691269932</v>
       </c>
       <c r="F5">
-        <v>534381.36284074339</v>
+        <v>1326741.3601782341</v>
       </c>
       <c r="G5">
-        <v>6533488119.9409227</v>
+        <v>8464342293.4069538</v>
       </c>
       <c r="H5">
-        <v>811020.02239246096</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="I5">
-        <v>19216141529.23801</v>
-      </c>
-      <c r="J5">
-        <v>233947.7100352589</v>
-      </c>
-      <c r="K5">
-        <v>-123461673.0157012</v>
+        <v>24895124392.37339</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-83818436.633178174</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-1909600144.8431511</v>
+      </c>
+      <c r="L5">
+        <v>1212265.5745999999</v>
+      </c>
+      <c r="M5">
+        <v>179999.99997713399</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>5493.6826523325781</v>
       </c>
-      <c r="C6" s="2">
-        <v>150699.56580056931</v>
+      <c r="C6">
+        <v>338792.4034786069</v>
       </c>
       <c r="D6">
-        <v>35679075.98025547</v>
+        <v>114334809.0244963</v>
       </c>
       <c r="E6">
-        <v>1652396.7696563641</v>
+        <v>4489269.2936006784</v>
       </c>
       <c r="F6">
-        <v>495596.61652495398</v>
+        <v>1287956.6138624451</v>
       </c>
       <c r="G6">
-        <v>6458367224.9432278</v>
+        <v>8176659065.5948086</v>
       </c>
       <c r="H6">
-        <v>830784.94004956097</v>
+        <v>1000144.404761905</v>
       </c>
       <c r="I6">
-        <v>18995197720.421261</v>
-      </c>
-      <c r="J6">
-        <v>268596.78565223521</v>
-      </c>
-      <c r="K6">
-        <v>-123628298.0199963</v>
+        <v>24048997251.749439</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-83786242.887025565</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-1910588920.2030799</v>
+      </c>
+      <c r="L6">
+        <v>1553737.53755</v>
+      </c>
+      <c r="M6">
+        <v>233999.99997261961</v>
       </c>
     </row>
   </sheetData>
@@ -746,66 +798,66 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -867,7 +919,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -929,7 +981,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -991,7 +1043,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>6</v>

--- a/squire_results.xlsx
+++ b/squire_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,19 +585,19 @@
         <v>1158500.010259711</v>
       </c>
       <c r="G3" t="n">
-        <v>8659549636.100101</v>
+        <v>10322099734.81447</v>
       </c>
       <c r="H3" t="n">
-        <v>1000144.404761905</v>
+        <v>1000144.4047619</v>
       </c>
       <c r="I3" t="n">
-        <v>25469263635.58853</v>
+        <v>30359116867.10139</v>
       </c>
       <c r="J3" t="n">
-        <v>-69839326.53472136</v>
+        <v>-69356297.74193081</v>
       </c>
       <c r="K3" t="n">
-        <v>-1408381662.554257</v>
+        <v>-1402083942.134469</v>
       </c>
       <c r="L3" t="n">
         <v>897836.07785</v>
@@ -628,19 +628,19 @@
         <v>1326340.566949389</v>
       </c>
       <c r="G4" t="n">
-        <v>8615634987.471956</v>
+        <v>10271083688.56232</v>
       </c>
       <c r="H4" t="n">
-        <v>1000144.404761905</v>
+        <v>1000144.4047619</v>
       </c>
       <c r="I4" t="n">
-        <v>25340102904.32928</v>
+        <v>30209069672.24211</v>
       </c>
       <c r="J4" t="n">
-        <v>-69851920.43903285</v>
+        <v>-69370954.84994611</v>
       </c>
       <c r="K4" t="n">
-        <v>-1407121128.860082</v>
+        <v>-1400850308.451824</v>
       </c>
       <c r="L4" t="n">
         <v>1004262.89195</v>
@@ -671,19 +671,19 @@
         <v>1326741.360178234</v>
       </c>
       <c r="G5" t="n">
-        <v>8464342293.406954</v>
+        <v>10095325591.45469</v>
       </c>
       <c r="H5" t="n">
-        <v>1000144.404761905</v>
+        <v>1000144.4047619</v>
       </c>
       <c r="I5" t="n">
-        <v>24895124392.37339</v>
+        <v>29692134092.51379</v>
       </c>
       <c r="J5" t="n">
-        <v>-69860214.48817818</v>
+        <v>-69386356.95201926</v>
       </c>
       <c r="K5" t="n">
-        <v>-1407797330.635151</v>
+        <v>-1401619184.888812</v>
       </c>
       <c r="L5" t="n">
         <v>1212265.5746</v>
@@ -714,25 +714,713 @@
         <v>1287956.613862445</v>
       </c>
       <c r="G6" t="n">
-        <v>8176659065.594809</v>
+        <v>9761121372.258755</v>
       </c>
       <c r="H6" t="n">
-        <v>1000144.404761905</v>
+        <v>1000144.4047619</v>
       </c>
       <c r="I6" t="n">
-        <v>24048997251.74944</v>
+        <v>28709180506.64339</v>
       </c>
       <c r="J6" t="n">
-        <v>-69866756.54788557</v>
+        <v>-69406414.98235808</v>
       </c>
       <c r="K6" t="n">
-        <v>-1410303098.37908</v>
+        <v>-1404301173.60654</v>
       </c>
       <c r="L6" t="n">
         <v>1553737.53755</v>
       </c>
       <c r="M6" t="n">
         <v>233999.9999726196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>year_5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8284.614405238723</v>
+      </c>
+      <c r="C7" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D7" t="n">
+        <v>115563249.1545184</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4648890.680865896</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1359236.473258789</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9419156914.662556</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27703402690.18399</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-69425823.08570449</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1407266472.644478</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1893127.40985</v>
+      </c>
+      <c r="M7" t="n">
+        <v>287999.9999654305</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>year_6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12191.38202772919</v>
+      </c>
+      <c r="C8" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D8" t="n">
+        <v>117125891.8013785</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4851937.765535063</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1449908.330545733</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9084952695.466625</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26720449104.3136</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-69445910.22664443</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1410042570.085188</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2237390.65855</v>
+      </c>
+      <c r="M8" t="n">
+        <v>341999.9999586912</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>year_7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11850.86765258082</v>
+      </c>
+      <c r="C9" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D9" t="n">
+        <v>116982610.4279394</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4833320.03151721</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1441594.473074578</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8547989654.52831</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25141146042.73032</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-69469906.25694503</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1415572557.925661</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2738973.6977</v>
+      </c>
+      <c r="M9" t="n">
+        <v>425999.9999546405</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>year_8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17292.64149240388</v>
+      </c>
+      <c r="C10" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D10" t="n">
+        <v>119274427.0800807</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5131114.726131863</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1574576.426964257</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8029831290.117998</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23617150853.28823</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-69505553.88320836</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1419147774.014498</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3312217.64285</v>
+      </c>
+      <c r="M10" t="n">
+        <v>509999.9999395126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>year_9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15313.30327490388</v>
+      </c>
+      <c r="C11" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118523483.7750807</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5033538.451006864</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1531003.173464257</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7220288704.65715</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21236143248.99162</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-69535204.88288227</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1428386795.700918</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4078931.6499</v>
+      </c>
+      <c r="M11" t="n">
+        <v>635999.9999312732</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>year_10</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>22861.53566149424</v>
+      </c>
+      <c r="C12" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D12" t="n">
+        <v>121689514.4859449</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5444927.009424713</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1714711.12829218</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6402985880.796041</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18832311414.106</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-69544629.66278052</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1440096833.987165</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4828244.234849999</v>
+      </c>
+      <c r="M12" t="n">
+        <v>761999.9999272262</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>year_11</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>31009.50485658583</v>
+      </c>
+      <c r="C13" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D13" t="n">
+        <v>125051614.9477663</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5881792.532395947</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1909795.969904038</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5550623297.189793</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16325362638.79351</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-69637528.73814125</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1441758569.865067</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5795571.549399999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>899999.9999021315</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>year_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29890.2245311594</v>
+      </c>
+      <c r="C14" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D14" t="n">
+        <v>124649749.1065072</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5829574.779565682</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1886477.828497648</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4292743070.098787</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12625714912.05526</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-69659195.46272033</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1458968228.587877</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6972356.849199997</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1097999.999892584</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>year_13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40956.24580842444</v>
+      </c>
+      <c r="C15" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D15" t="n">
+        <v>129363560.4520736</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6442079.278480331</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2159995.276944095</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2930853979.89546</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8620158764.398411</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-69746425.0422513</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-1467070221.085943</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8405704.556849999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1319999.999863321</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>year_14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>45151.61899355377</v>
+      </c>
+      <c r="C16" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D16" t="n">
+        <v>131130240.5092329</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6671638.631586517</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2262506.34198914</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2885851105.676082</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8487797369.635535</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-69579358.23210406</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1479851874.876657</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10148786.17335</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1595999.999834891</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>year_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>49481.00141963462</v>
+      </c>
+      <c r="C17" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D17" t="n">
+        <v>133155517.9689573</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6934799.684223534</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2380022.441504008</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2885851105.676082</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8487797369.635535</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-69369298.57099971</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-1493438990.572928</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12374088.1517</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1949999.999804663</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>year_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>64401.88150688064</v>
+      </c>
+      <c r="C18" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D18" t="n">
+        <v>139492727.9982439</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7758245.802226518</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2747737.097524344</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2885851105.676082</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8487797369.635535</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-69152079.49478963</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-1506773980.70187</v>
+      </c>
+      <c r="L18" t="n">
+        <v>14975235.92055</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2357999.999759086</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>year_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>73880.98775430358</v>
+      </c>
+      <c r="C19" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D19" t="n">
+        <v>143538121.3753893</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8283897.225614852</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2982469.799655001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2885851105.676082</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8487797369.635535</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-69010032.93864384</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-1527599958.750351</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18221357.26838</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2873999.999707979</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>year_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>216912.8340352509</v>
+      </c>
+      <c r="C20" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D20" t="n">
+        <v>203699543.9076468</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16101168.48675083</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6473317.773748958</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2885851105.676082</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8487797369.635535</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-69507363.19916528</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-1464846677.236011</v>
+      </c>
+      <c r="L20" t="n">
+        <v>20427676.42998</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2975999.999513908</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>year_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>225144.7539995625</v>
+      </c>
+      <c r="C21" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D21" t="n">
+        <v>205964150.5834918</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16395427.5640751</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6604720.877162164</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2885851105.676082</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8487797369.635535</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-69761841.42409371</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-1431853074.61145</v>
+      </c>
+      <c r="L21" t="n">
+        <v>22776293.54078</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2975999.999494943</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>year_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>204538.6318816735</v>
+      </c>
+      <c r="C22" t="n">
+        <v>338792.4034786069</v>
+      </c>
+      <c r="D22" t="n">
+        <v>195729312.8724029</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15065530.44173916</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6010847.577876793</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2885851105.676082</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1000144.4047619</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8487797369.635535</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-69751231.62411882</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1432229940.850791</v>
+      </c>
+      <c r="L22" t="n">
+        <v>24508540.57724</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2975999.999489368</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,6 +1795,1030 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>year_5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>year_6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>year_7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>year_8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>year_9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>year_10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>year_11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24</v>
+      </c>
+      <c r="K12" t="n">
+        <v>18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>year_12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>22</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" t="n">
+        <v>29</v>
+      </c>
+      <c r="K13" t="n">
+        <v>24</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>year_13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>26</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>29</v>
+      </c>
+      <c r="L14" t="n">
+        <v>15</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>year_14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>41</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>34</v>
+      </c>
+      <c r="I15" t="n">
+        <v>26</v>
+      </c>
+      <c r="J15" t="n">
+        <v>44</v>
+      </c>
+      <c r="K15" t="n">
+        <v>35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>year_15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>52</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>39</v>
+      </c>
+      <c r="I16" t="n">
+        <v>34</v>
+      </c>
+      <c r="J16" t="n">
+        <v>51</v>
+      </c>
+      <c r="K16" t="n">
+        <v>44</v>
+      </c>
+      <c r="L16" t="n">
+        <v>21</v>
+      </c>
+      <c r="M16" t="n">
+        <v>17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>11</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>year_16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>63</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>51</v>
+      </c>
+      <c r="I17" t="n">
+        <v>39</v>
+      </c>
+      <c r="J17" t="n">
+        <v>62</v>
+      </c>
+      <c r="K17" t="n">
+        <v>51</v>
+      </c>
+      <c r="L17" t="n">
+        <v>26</v>
+      </c>
+      <c r="M17" t="n">
+        <v>21</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>7</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>year_17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>79</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>60</v>
+      </c>
+      <c r="I18" t="n">
+        <v>51</v>
+      </c>
+      <c r="J18" t="n">
+        <v>72</v>
+      </c>
+      <c r="K18" t="n">
+        <v>62</v>
+      </c>
+      <c r="L18" t="n">
+        <v>31</v>
+      </c>
+      <c r="M18" t="n">
+        <v>26</v>
+      </c>
+      <c r="N18" t="n">
+        <v>21</v>
+      </c>
+      <c r="O18" t="n">
+        <v>17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>11</v>
+      </c>
+      <c r="R18" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" t="n">
+        <v>7</v>
+      </c>
+      <c r="T18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>year_18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>91</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>55</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>92</v>
+      </c>
+      <c r="K19" t="n">
+        <v>72</v>
+      </c>
+      <c r="L19" t="n">
+        <v>38</v>
+      </c>
+      <c r="M19" t="n">
+        <v>31</v>
+      </c>
+      <c r="N19" t="n">
+        <v>26</v>
+      </c>
+      <c r="O19" t="n">
+        <v>21</v>
+      </c>
+      <c r="P19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>15</v>
+      </c>
+      <c r="R19" t="n">
+        <v>11</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>year_19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>69</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>109</v>
+      </c>
+      <c r="K20" t="n">
+        <v>92</v>
+      </c>
+      <c r="L20" t="n">
+        <v>43</v>
+      </c>
+      <c r="M20" t="n">
+        <v>38</v>
+      </c>
+      <c r="N20" t="n">
+        <v>31</v>
+      </c>
+      <c r="O20" t="n">
+        <v>26</v>
+      </c>
+      <c r="P20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>17</v>
+      </c>
+      <c r="R20" t="n">
+        <v>15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>11</v>
+      </c>
+      <c r="T20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>year_20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>132</v>
+      </c>
+      <c r="K21" t="n">
+        <v>109</v>
+      </c>
+      <c r="L21" t="n">
+        <v>55</v>
+      </c>
+      <c r="M21" t="n">
+        <v>43</v>
+      </c>
+      <c r="N21" t="n">
+        <v>38</v>
+      </c>
+      <c r="O21" t="n">
+        <v>31</v>
+      </c>
+      <c r="P21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>21</v>
+      </c>
+      <c r="R21" t="n">
+        <v>17</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
